--- a/Classificatore/Database.xlsx
+++ b/Classificatore/Database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documenti_personali\Programming\data_visualizzation\TESI\Favore Ignes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ines.avila\Classificatore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCD75D3-3E5F-46F0-997C-B1009CF08CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4583A98-07A2-4195-A4F6-5E541C34F8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="275">
   <si>
     <t>Compound</t>
   </si>
@@ -33,68 +33,830 @@
     <t>Class</t>
   </si>
   <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>acido cloridrico</t>
-  </si>
-  <si>
-    <t>acido</t>
-  </si>
-  <si>
-    <t>idrossido di sodio</t>
-  </si>
-  <si>
-    <t>base</t>
-  </si>
-  <si>
-    <t>etanolo</t>
-  </si>
-  <si>
-    <t>alcol</t>
-  </si>
-  <si>
-    <t>metanolo</t>
-  </si>
-  <si>
-    <t>fenolo</t>
-  </si>
-  <si>
-    <t>benzene</t>
-  </si>
-  <si>
-    <t>aromatico</t>
-  </si>
-  <si>
-    <t>ammoniaca</t>
-  </si>
-  <si>
-    <t>acido acetico</t>
-  </si>
-  <si>
-    <t>mercurio</t>
-  </si>
-  <si>
-    <t>metallo</t>
-  </si>
-  <si>
-    <t>cromo</t>
-  </si>
-  <si>
-    <t>acqua</t>
-  </si>
-  <si>
-    <t>cloruro di sodio</t>
-  </si>
-  <si>
-    <t>sale</t>
+    <t>1,3-Benzenediol, 4,5-dimethyl-</t>
+  </si>
+  <si>
+    <t>Acetic acid</t>
+  </si>
+  <si>
+    <t>Butanoic acid</t>
+  </si>
+  <si>
+    <t>Heptanoic acid, methyl ester</t>
+  </si>
+  <si>
+    <t>Hexadecanoic acid, methyl ester</t>
+  </si>
+  <si>
+    <t>Hexanoic acid, methyl ester</t>
+  </si>
+  <si>
+    <t>Isovaleric acid, 4-biphenyl ester</t>
+  </si>
+  <si>
+    <t>Pentandioic acid, (p-t-butylphenyl) ester</t>
+  </si>
+  <si>
+    <t>Pipecolic acid, N-propargyloxycarbonyl-, propargyl ester</t>
+  </si>
+  <si>
+    <t>Propanoic acid</t>
+  </si>
+  <si>
+    <t>Succinic acid, dodec-2-en-1-yl 3-phenylprop-2-en-1-yl ester</t>
+  </si>
+  <si>
+    <t>1,2,4-Benzenetricarboxylic acid, 1,2-dimethyl ester</t>
+  </si>
+  <si>
+    <t>2-Propenoic acid</t>
+  </si>
+  <si>
+    <t>Carbamic acid, methyl-, 3-methylphenyl ester</t>
+  </si>
+  <si>
+    <t>Hexanoic acid, cyclohexyl ester</t>
+  </si>
+  <si>
+    <t>Propanoic acid, 2-oxo-, methyl ester</t>
+  </si>
+  <si>
+    <t>Vinyl crotonate</t>
+  </si>
+  <si>
+    <t>Acid</t>
+  </si>
+  <si>
+    <t>(E)-Stilbene</t>
+  </si>
+  <si>
+    <t>1-(1'-pyrrolidinyl)-2-butanone</t>
+  </si>
+  <si>
+    <t>1,3,6-Trioxocane</t>
+  </si>
+  <si>
+    <t>1,3-Benzenediol, monobenzoate</t>
+  </si>
+  <si>
+    <t>1H-Indene, 1,1-dimethyl-</t>
+  </si>
+  <si>
+    <t>1-Pentanone, 1-(2-furanyl)-</t>
+  </si>
+  <si>
+    <t>1-Pentanone, 1-(4-methylphenyl)-</t>
+  </si>
+  <si>
+    <t>1-Propanol, dl-2-benzylamino-,</t>
+  </si>
+  <si>
+    <t>2,2'-Bipyridine, 6,6'-dimethyl-</t>
+  </si>
+  <si>
+    <t>2,3-Dihydro-1H-1-methylcyclopenta[b]quinoxaline</t>
+  </si>
+  <si>
+    <t>2,3-Dimethyl-1-hexene</t>
+  </si>
+  <si>
+    <t>2,4,6-Cycloheptatrien-1-one, 2-hydroxy-5-(1-methylethyl)-</t>
+  </si>
+  <si>
+    <t>2',4'-Dihydroxypropiophenone</t>
+  </si>
+  <si>
+    <t>2-Acetoxymesitylene</t>
+  </si>
+  <si>
+    <t>2-Butanone</t>
+  </si>
+  <si>
+    <t>2-Cyclohexen-3-ol-1-one, 2-[1-iminoethyl]-</t>
+  </si>
+  <si>
+    <t>2-Cyclopenten-1-one</t>
+  </si>
+  <si>
+    <t>2-Cyclopenten-1-one, 2,3-dimethyl-</t>
+  </si>
+  <si>
+    <t>2-Cyclopenten-1-one, 2-methyl-</t>
+  </si>
+  <si>
+    <t>2-Cyclopenten-1-one, 3,4-dimethyl-</t>
+  </si>
+  <si>
+    <t>2-Methylindene</t>
+  </si>
+  <si>
+    <t>2-Pentanone</t>
+  </si>
+  <si>
+    <t>3-(Hydroxyimino)-6-methylindolin-2-one</t>
+  </si>
+  <si>
+    <t>3,4,5-Trihydroxyphthalaldehyde</t>
+  </si>
+  <si>
+    <t>3',5'-Dihydroxyacetophenone</t>
+  </si>
+  <si>
+    <t>3,6-Dimethyl-4H-furo[3,2-c]pyran-4-one</t>
+  </si>
+  <si>
+    <t>3-Ethyl-2,6,10-trimethylundecane</t>
+  </si>
+  <si>
+    <t>3-Furaldehyde</t>
+  </si>
+  <si>
+    <t>4',6'-Dihydroxy-2',3'-dimethylacetophenone</t>
+  </si>
+  <si>
+    <t>4-Formyl-3,5-dimethyl-1H-pyrrole-2-carbonitrile</t>
+  </si>
+  <si>
+    <t>4-Methylbicyclo(3.2.2)nona-3,6-dien-2-one</t>
+  </si>
+  <si>
+    <t>9H-Xanthene</t>
+  </si>
+  <si>
+    <t>Acetone</t>
+  </si>
+  <si>
+    <t>Acetophenone, 4'-hydroxy-</t>
+  </si>
+  <si>
+    <t>Cyclohexanone</t>
+  </si>
+  <si>
+    <t>Cyclopentane, 1,1,3-trimethyl-</t>
+  </si>
+  <si>
+    <t>Cyclopentanone</t>
+  </si>
+  <si>
+    <t>Cyclopropane, 1-(1-methylethyl)-2-nonyl-</t>
+  </si>
+  <si>
+    <t>Decane, 3,8-dimethyl-</t>
+  </si>
+  <si>
+    <t>di-p-Tolylacetylene</t>
+  </si>
+  <si>
+    <t>Dodecane</t>
+  </si>
+  <si>
+    <t>Dodecane, 6-methyl-</t>
+  </si>
+  <si>
+    <t>Ethanone, 1-(2-hydroxy-5-methylphenyl)-</t>
+  </si>
+  <si>
+    <t>Heptadecane</t>
+  </si>
+  <si>
+    <t>Hexadecane</t>
+  </si>
+  <si>
+    <t>Homosyringaldehyde</t>
+  </si>
+  <si>
+    <t>l-Alanine, N-(2-furoyl)-, butyl ester</t>
+  </si>
+  <si>
+    <t>l-Alanine, N-(2-furoyl)-, octyl ester</t>
+  </si>
+  <si>
+    <t>l-Proline, n-propargyloxycarbonyl-, propargyl ester</t>
+  </si>
+  <si>
+    <t>Nonane, 2,2,4,4,6,8,8-heptamethyl-</t>
+  </si>
+  <si>
+    <t>Pentadecane</t>
+  </si>
+  <si>
+    <t>Tetradecane</t>
+  </si>
+  <si>
+    <t>Undecane</t>
+  </si>
+  <si>
+    <t>Undecane, 3,8-dimethyl-</t>
+  </si>
+  <si>
+    <t>1,2-Benzenediol, 3-methoxy-</t>
+  </si>
+  <si>
+    <t>1,2-Ethanediol, 1,2-diphenyl-, [R-(R*,R*)]-</t>
+  </si>
+  <si>
+    <t>1,3-Dioxolane</t>
+  </si>
+  <si>
+    <t>1,3-Dioxolane, 2-methyl-</t>
+  </si>
+  <si>
+    <t>1,4-Benzenediol, 2-methoxy-</t>
+  </si>
+  <si>
+    <t>1-Butanol, 3,3-dimethyl-</t>
+  </si>
+  <si>
+    <t>1-Hydroxy-2-butanone</t>
+  </si>
+  <si>
+    <t>2(5H)-Furanone</t>
+  </si>
+  <si>
+    <t>2,3,4,5-Tetrahydroxypentanal</t>
+  </si>
+  <si>
+    <t>2,3-Butanedione</t>
+  </si>
+  <si>
+    <t>2-Propanone, 1-(4-hydroxy-3-methoxyphenyl)-</t>
+  </si>
+  <si>
+    <t>2-Propanone, 1-(acetyloxy)-</t>
+  </si>
+  <si>
+    <t>2-Propanone, 1-hydroxy-</t>
+  </si>
+  <si>
+    <t>3-Hexen-1-ol, acetate, (Z)-</t>
+  </si>
+  <si>
+    <t>3-tert-Butyl-2-pyrazolin-5-one</t>
+  </si>
+  <si>
+    <t>4,5-Dimethoxy-2-hydroxyacetophenone</t>
+  </si>
+  <si>
+    <t>4-Hexen-3-one, 2,2-dimethyl-</t>
+  </si>
+  <si>
+    <t>Acetaldehyde, hydroxy-</t>
+  </si>
+  <si>
+    <t>Benzaldehyde, 3-hydroxy-4-methoxy-</t>
+  </si>
+  <si>
+    <t>Cyclohexanol</t>
+  </si>
+  <si>
+    <t>Ethane, 1,1-diethoxy-</t>
+  </si>
+  <si>
+    <t>Ethanone, 1-(3,4-dimethoxyphenyl)-</t>
+  </si>
+  <si>
+    <t>Ethanone, 1-(3-hydroxy-4-methoxyphenyl)-</t>
+  </si>
+  <si>
+    <t>Ethanone, 1-(4-hydroxy-3,5-dimethoxyphenyl)-</t>
+  </si>
+  <si>
+    <t>Ethyl Acetate</t>
+  </si>
+  <si>
+    <t>Furfural</t>
+  </si>
+  <si>
+    <t>Glycolaldehyde dimethyl acetal</t>
+  </si>
+  <si>
+    <t>Methanone, (1-hydroxycyclohexyl)phenyl-</t>
+  </si>
+  <si>
+    <t>Methylal</t>
+  </si>
+  <si>
+    <t>n-Propyl acetate</t>
+  </si>
+  <si>
+    <t>Octane, 2,6,6-trimethyl-</t>
+  </si>
+  <si>
+    <t>Resorcinol</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ketones and Etheres</t>
+  </si>
+  <si>
+    <t>Furans</t>
+  </si>
+  <si>
+    <t>2,5-Furandicarboxaldehyde</t>
+  </si>
+  <si>
+    <t>4-Furan-2-yl-2,4-dioxo-butyric acid methyl ester</t>
+  </si>
+  <si>
+    <t>Benzofuran, 2-methyl-</t>
+  </si>
+  <si>
+    <t>Benzofuran, 2,3-dihydro-</t>
+  </si>
+  <si>
+    <t>Furan, 3-methyl-</t>
+  </si>
+  <si>
+    <t>1-(2,3-Dihydroxyphenyl)ethanone</t>
+  </si>
+  <si>
+    <t>3,5-Dihydroxybenzaldehyde</t>
+  </si>
+  <si>
+    <t>Benzaldehyde, 2,4-dihydroxy-6-methyl-</t>
+  </si>
+  <si>
+    <t>Butyric acid, 4-(m-hydroxyphenyl)-</t>
+  </si>
+  <si>
+    <t>Ethanone, 1-(2,3,4-trihydroxyphenyl)-</t>
+  </si>
+  <si>
+    <t>Ethanone, 1-(2,5-dihydroxyphenyl)-</t>
+  </si>
+  <si>
+    <t>Ethanone, 1-(3-hydroxyphenyl)-</t>
+  </si>
+  <si>
+    <t>Ethyl p-hydroxybenzoate</t>
+  </si>
+  <si>
+    <t>O-(2,6-Dimethylpyrid-3-yl)-N-phenylbenzimidate</t>
+  </si>
+  <si>
+    <t>p-Cresol</t>
+  </si>
+  <si>
+    <t>Phenol</t>
+  </si>
+  <si>
+    <t>Phenol, 2-(1-methylethyl)-, methylcarbamate</t>
+  </si>
+  <si>
+    <t>Phenol, 2,3,5-trimethyl-</t>
+  </si>
+  <si>
+    <t>Phenol, 2,3-dimethyl-</t>
+  </si>
+  <si>
+    <t>Phenol, 2,4,6-trimethyl-</t>
+  </si>
+  <si>
+    <t>Phenol, 2,4-dimethyl-</t>
+  </si>
+  <si>
+    <t>Phenol, 2-ethyl-</t>
+  </si>
+  <si>
+    <t>Phenol, 2-ethyl-4-methyl-</t>
+  </si>
+  <si>
+    <t>Phenol, 2-methyl-</t>
+  </si>
+  <si>
+    <t>Phenol, 3,4,5-trimethyl-, methylcarbamate</t>
+  </si>
+  <si>
+    <t>Phenol, 4-ethyl-</t>
+  </si>
+  <si>
+    <t>Phenol, 4-ethyl-2-methoxy-</t>
+  </si>
+  <si>
+    <t>Phenol, 4-ethyl-2-methyl-</t>
+  </si>
+  <si>
+    <t>Phenol, 4-propyl-</t>
+  </si>
+  <si>
+    <t>Resorcinol, 2-acetyl-</t>
+  </si>
+  <si>
+    <t>Thymol</t>
+  </si>
+  <si>
+    <t>Phenol, 3,4-dimethyl-</t>
+  </si>
+  <si>
+    <t>Phenol, 4-(methylthio)-</t>
+  </si>
+  <si>
+    <t>Alkyl Phenols</t>
+  </si>
+  <si>
+    <t>Phenol, 3,5-dimethyl-</t>
+  </si>
+  <si>
+    <t>.beta.-Methoxy-.alpha.-phenylphenethyl alcohol</t>
+  </si>
+  <si>
+    <t>1,1'-Biphenyl, 3-methyl-</t>
+  </si>
+  <si>
+    <t>1,1'-Biphenyl, 4-methoxy-</t>
+  </si>
+  <si>
+    <t>1-Propanone, 1-(4-hydroxy-3-methoxyphenyl)-</t>
+  </si>
+  <si>
+    <t>2-(4-Methoxyphenyl)ethyl acetate</t>
+  </si>
+  <si>
+    <t>2,5-Dihydroxy-4-methoxyacetophenone</t>
+  </si>
+  <si>
+    <t>2'-Hydroxy-4'-methoxyacetophenone, acetate</t>
+  </si>
+  <si>
+    <t>2-Methoxy-4-vinylphenol</t>
+  </si>
+  <si>
+    <t>2-Methoxy-5-methylphenol</t>
+  </si>
+  <si>
+    <t>3-Buten-2-one, 4-(4-methoxyphenyl)-</t>
+  </si>
+  <si>
+    <t>3-Ethoxy-4-methoxybenzaldehyde</t>
+  </si>
+  <si>
+    <t>3-Ethoxy-4-methoxybenzyl alcohol</t>
+  </si>
+  <si>
+    <t>3-Hydroxy-4-methoxybenzoic acid, methyl ester</t>
+  </si>
+  <si>
+    <t>3-Methoxy-5-methylphenol</t>
+  </si>
+  <si>
+    <t>3-Methoxy-5-propylphenol</t>
+  </si>
+  <si>
+    <t>7-Methoxy-1-naphthol</t>
+  </si>
+  <si>
+    <t>Benzene, 1-ethenyl-4-methoxy-</t>
+  </si>
+  <si>
+    <t>Benzoic acid, 4-hydroxy-3-methoxy-, methyl ester</t>
+  </si>
+  <si>
+    <t>Creosol</t>
+  </si>
+  <si>
+    <t>Ethanone, 1-(2-hydroxy-4-methoxyphenyl)-</t>
+  </si>
+  <si>
+    <t>Guaiacol, 4-butyl-</t>
+  </si>
+  <si>
+    <t>Methyl 3-(4-hydroxy-3-methoxyphenyl)propanoate</t>
+  </si>
+  <si>
+    <t>m-Guaiacol</t>
+  </si>
+  <si>
+    <t>Orcinol</t>
+  </si>
+  <si>
+    <t>Phenol, 2-methoxy-</t>
+  </si>
+  <si>
+    <t>Phenol, 2-methoxy-4-(1-propenyl)-</t>
+  </si>
+  <si>
+    <t>Phenol, 2-methoxy-4-(1-propenyl)-, acetate</t>
+  </si>
+  <si>
+    <t>Phenol, 2-methoxy-4-propyl-</t>
+  </si>
+  <si>
+    <t>Phenol, 3-methoxy-2-methyl-</t>
+  </si>
+  <si>
+    <t>Propan-2-one, 1-(4-isopropoxy-3-methoxyphenyl)-</t>
+  </si>
+  <si>
+    <t>Guaiacols</t>
+  </si>
+  <si>
+    <t>(E)-2,6-Dimethoxy-4-(prop-1-en-1-yl)phenol</t>
+  </si>
+  <si>
+    <t>1,1'-Biphenyl, 3,4'-dimethoxy-</t>
+  </si>
+  <si>
+    <t>1-Propanone, 1-(4-hydroxy-3,5-dimethoxyphenyl)-</t>
+  </si>
+  <si>
+    <t>2,3-Dimethoxyphenol</t>
+  </si>
+  <si>
+    <t>2',4'-Dimethoxyacetophenone</t>
+  </si>
+  <si>
+    <t>2,5-Dimethoxyethylbenzene</t>
+  </si>
+  <si>
+    <t>2,6-Dimethoxytoluene</t>
+  </si>
+  <si>
+    <t>3,4-Dimethoxyphenol, 2-methylpropionate</t>
+  </si>
+  <si>
+    <t>3,5-Dimethoxy-4-hydroxytoluene</t>
+  </si>
+  <si>
+    <t>3',5'-Dimethoxyacetophenone</t>
+  </si>
+  <si>
+    <t>Benzaldehyde, 4-hydroxy-3,5-dimethoxy-</t>
+  </si>
+  <si>
+    <t>Benzene, 1,3-dimethoxy-</t>
+  </si>
+  <si>
+    <t>Naphthalene, 2,7-dimethoxy-</t>
+  </si>
+  <si>
+    <t>Phenol, 2,6-dimethoxy-</t>
+  </si>
+  <si>
+    <t>Syringol</t>
+  </si>
+  <si>
+    <t>1,2-Benzenediol, 3-methyl-</t>
+  </si>
+  <si>
+    <t>1,2-Benzenediol, 4-methyl-</t>
+  </si>
+  <si>
+    <t>1,2-Benzenediol, O-(4-ethylbenzoyl)-O'-propargyloxycarbonyl-</t>
+  </si>
+  <si>
+    <t>Catechol</t>
+  </si>
+  <si>
+    <t>2,5-Dimethylanisole</t>
+  </si>
+  <si>
+    <t>2-Ethyl-4-methylanisole</t>
+  </si>
+  <si>
+    <t>Anisole</t>
+  </si>
+  <si>
+    <t>Benzene, 1,2,3-trimethoxy-5-methyl-</t>
+  </si>
+  <si>
+    <t>Methoxybenzenes</t>
+  </si>
+  <si>
+    <t>(2,6,6-Trimethylcyclohex-1-enylmethanesulfonyl)benzene</t>
+  </si>
+  <si>
+    <t>1,2-Benzenediol, O-(4-butylbenzoyl)-O'-(isobutoxycarbonyl)-</t>
+  </si>
+  <si>
+    <t>1,2-Dimethylbenzimidazole</t>
+  </si>
+  <si>
+    <t>1,8-Naphthyridine, 2,4,7-trimethyl-</t>
+  </si>
+  <si>
+    <t>1-Acetylnaphthalen-8-ol</t>
+  </si>
+  <si>
+    <t>1H-Benzimidazole, 2-ethyl-</t>
+  </si>
+  <si>
+    <t>1H-Benzimidazole, 5,6-dimethyl-</t>
+  </si>
+  <si>
+    <t>1H-Indazole, 5,7-dimethyl-</t>
+  </si>
+  <si>
+    <t>1H-Inden-5-ol, 2,3-dihydro-</t>
+  </si>
+  <si>
+    <t>1H-Indene, 1,1,3-trimethyl-</t>
+  </si>
+  <si>
+    <t>1-Naphthalenol</t>
+  </si>
+  <si>
+    <t>1-Naphthalenol, 2-methyl-</t>
+  </si>
+  <si>
+    <t>1-Naphthalenol, 5,8-dihydro-</t>
+  </si>
+  <si>
+    <t>2-Isopropyl-10-methylphenanthrene</t>
+  </si>
+  <si>
+    <t>3,4-Dimethoxytoluene</t>
+  </si>
+  <si>
+    <t>8,9-Dihydrocyclopenta[def]phenanthrene</t>
+  </si>
+  <si>
+    <t>9,10-Anthracenedione</t>
+  </si>
+  <si>
+    <t>9-Anthracenamine, 9,10-dihydro-</t>
+  </si>
+  <si>
+    <t>9-Ethyl-10-methylanthracene</t>
+  </si>
+  <si>
+    <t>Acenaphthene</t>
+  </si>
+  <si>
+    <t>Anthracene</t>
+  </si>
+  <si>
+    <t>Anthracene, 2-methyl-</t>
+  </si>
+  <si>
+    <t>Anthrone</t>
+  </si>
+  <si>
+    <t>Benzaldehyde, 4-(dimethylamino)-</t>
+  </si>
+  <si>
+    <t>Benzene, 1,2,4,5-tetramethyl-</t>
+  </si>
+  <si>
+    <t>Benzene, 1,2,4-trimethyl-</t>
+  </si>
+  <si>
+    <t>Benzene, 1,3,5-trimethyl-2-(1,2-propadienyl)-</t>
+  </si>
+  <si>
+    <t>Benzene, 1,3-dimethyl-</t>
+  </si>
+  <si>
+    <t>Benzene, 1-ethyl-2-methyl-</t>
+  </si>
+  <si>
+    <t>Benzene, 1-ethyl-4-methoxy-</t>
+  </si>
+  <si>
+    <t>Benzene, 1-ethyl-4-methyl-</t>
+  </si>
+  <si>
+    <t>Benzene, 1-methyl-3-(1-methylethyl)-</t>
+  </si>
+  <si>
+    <t>Benzene, 1-methyl-4-propyl-</t>
+  </si>
+  <si>
+    <t>Benzene, 4-ethenyl-1,2-dimethyl-</t>
+  </si>
+  <si>
+    <t>Benzene, ethylpentamethyl-</t>
+  </si>
+  <si>
+    <t>Benzene, pentamethyl-</t>
+  </si>
+  <si>
+    <t>Benzene, pentyl-</t>
+  </si>
+  <si>
+    <t>Benzene, propyl-</t>
+  </si>
+  <si>
+    <t>Benzphetamine</t>
+  </si>
+  <si>
+    <t>Ethylbenzene</t>
+  </si>
+  <si>
+    <t>Indane</t>
+  </si>
+  <si>
+    <t>Naphthalene</t>
+  </si>
+  <si>
+    <t>Naphthalene, 1,2-dimethyl-</t>
+  </si>
+  <si>
+    <t>Naphthalene, 1,4,6-trimethyl-</t>
+  </si>
+  <si>
+    <t>Naphthalene, 1,4-dimethyl-</t>
+  </si>
+  <si>
+    <t>Naphthalene, 1,6,7-trimethyl-</t>
+  </si>
+  <si>
+    <t>Naphthalene, 1,8-dimethyl-</t>
+  </si>
+  <si>
+    <t>Naphthalene, 2-(1-methylethyl)-</t>
+  </si>
+  <si>
+    <t>Naphthalene, 2,6-dimethyl-</t>
+  </si>
+  <si>
+    <t>Naphthalene, 2-methyl-</t>
+  </si>
+  <si>
+    <t>Naphtho[2,1-b]furan</t>
+  </si>
+  <si>
+    <t>p-Cymene-2,5-diol</t>
+  </si>
+  <si>
+    <t>Phenanthrene</t>
+  </si>
+  <si>
+    <t>Phenanthrene, 2,3,5-trimethyl-</t>
+  </si>
+  <si>
+    <t>Phenanthrene, 2,3-dimethyl-</t>
+  </si>
+  <si>
+    <t>Phenanthrene, 2-methyl-</t>
+  </si>
+  <si>
+    <t>Phenanthrene, 3,6-dimethyl-</t>
+  </si>
+  <si>
+    <t>Toluene</t>
+  </si>
+  <si>
+    <t>Aromatics</t>
+  </si>
+  <si>
+    <t>.beta.-D-Glucopyranose, 1,6-anhydro-</t>
+  </si>
+  <si>
+    <t>Sugars</t>
+  </si>
+  <si>
+    <t>OAR</t>
+  </si>
+  <si>
+    <t>1,2,4-Triazolo[4,3-b]pyridazine, 6-methyl-</t>
+  </si>
+  <si>
+    <t>1,3-Benzenediamine, 4-methoxy-</t>
+  </si>
+  <si>
+    <t>2(1H)-Pyridinone, 3-amino-</t>
+  </si>
+  <si>
+    <t>2-Methylbenzylamine, N-decyl-N-methyl-</t>
+  </si>
+  <si>
+    <t>3(2H)-Pyridazinone, 6-methyl-</t>
+  </si>
+  <si>
+    <t>3-Ethoxypyrazolo[3,4-d]pyrimidin-4(5H)-one</t>
+  </si>
+  <si>
+    <t>5-Methylenehydantoin</t>
+  </si>
+  <si>
+    <t>Aniline</t>
+  </si>
+  <si>
+    <t>Cyanogen</t>
+  </si>
+  <si>
+    <t>m-Aminophenylacetylene</t>
+  </si>
+  <si>
+    <t>N-Butyl-tert-butylamine</t>
+  </si>
+  <si>
+    <t>Piperoxan</t>
+  </si>
+  <si>
+    <t>Propanamide, N-(aminocarbonyl)-</t>
+  </si>
+  <si>
+    <t>Pyridine</t>
+  </si>
+  <si>
+    <t>Pyrolo[3,2-d]pyrimidin-2,4(1H,3H)-dione</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,16 +864,96 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB381D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF66FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -119,15 +961,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -405,163 +1290,2319 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:B287"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A244" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J269" sqref="J269"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="62.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="B19" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>259</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A113:A142">
+    <sortCondition ref="A113:A142"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Classificatore/Database.xlsx
+++ b/Classificatore/Database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ines.avila\Classificatore\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Utility\Classificatore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4583A98-07A2-4195-A4F6-5E541C34F8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EF2113-40A0-481B-A925-135101C137D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5655" yWindow="2430" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -345,9 +345,6 @@
     <t>Resorcinol</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ketones and Etheres</t>
-  </si>
-  <si>
     <t>Furans</t>
   </si>
   <si>
@@ -850,6 +847,9 @@
   </si>
   <si>
     <t>Pyrolo[3,2-d]pyrimidin-2,4(1H,3H)-dione</t>
+  </si>
+  <si>
+    <t>Ketones and Etheres</t>
   </si>
 </sst>
 </file>
@@ -1292,11 +1292,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J269" sqref="J269"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B109" sqref="B108:B109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="62.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
@@ -1451,7 +1451,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1459,7 +1459,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1467,7 +1467,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1475,7 +1475,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1483,7 +1483,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1491,7 +1491,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1499,7 +1499,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1507,7 +1507,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1515,7 +1515,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1523,7 +1523,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1531,7 +1531,7 @@
         <v>30</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1539,7 +1539,7 @@
         <v>31</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1547,7 +1547,7 @@
         <v>32</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1555,7 +1555,7 @@
         <v>33</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1563,7 +1563,7 @@
         <v>34</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1571,7 +1571,7 @@
         <v>35</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1579,7 +1579,7 @@
         <v>36</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1587,7 +1587,7 @@
         <v>37</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1595,7 +1595,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1603,7 +1603,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1611,7 +1611,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1619,7 +1619,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1627,7 +1627,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1635,7 +1635,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1643,7 +1643,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1651,7 +1651,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1659,7 +1659,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1667,7 +1667,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1675,7 +1675,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1683,7 +1683,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1691,7 +1691,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1699,7 +1699,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1707,7 +1707,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1715,7 +1715,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1723,7 +1723,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1731,7 +1731,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1739,7 +1739,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1747,7 +1747,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1755,7 +1755,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1763,7 +1763,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1771,7 +1771,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1779,7 +1779,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1787,7 +1787,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1795,7 +1795,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1803,7 +1803,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1811,7 +1811,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1819,7 +1819,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1827,7 +1827,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -1835,7 +1835,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1843,7 +1843,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1851,7 +1851,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1859,7 +1859,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1867,7 +1867,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1875,7 +1875,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1883,7 +1883,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1891,7 +1891,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1899,7 +1899,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1907,7 +1907,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1915,7 +1915,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1923,7 +1923,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1931,7 +1931,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1939,7 +1939,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1947,7 +1947,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1955,7 +1955,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1963,7 +1963,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1971,7 +1971,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1979,7 +1979,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1987,7 +1987,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1995,7 +1995,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -2003,7 +2003,7 @@
         <v>47</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -2011,7 +2011,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -2019,7 +2019,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -2027,7 +2027,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -2035,7 +2035,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -2043,7 +2043,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -2051,7 +2051,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -2059,7 +2059,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -2067,7 +2067,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -2075,7 +2075,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -2083,7 +2083,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -2091,7 +2091,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -2099,7 +2099,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -2107,7 +2107,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -2115,7 +2115,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -2123,7 +2123,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -2131,7 +2131,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -2139,7 +2139,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -2147,7 +2147,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -2155,359 +2155,359 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B136" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -2515,63 +2515,63 @@
         <v>84</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -2579,39 +2579,39 @@
         <v>92</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -2619,7 +2619,7 @@
         <v>62</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -2627,7 +2627,7 @@
         <v>96</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -2635,175 +2635,175 @@
         <v>96</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B178" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -2811,23 +2811,23 @@
         <v>89</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -2835,7 +2835,7 @@
         <v>95</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -2843,7 +2843,7 @@
         <v>95</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -2851,47 +2851,47 @@
         <v>97</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B196" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="B196" s="3" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B199" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="B199" s="3" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -2899,7 +2899,7 @@
         <v>2</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -2907,7 +2907,7 @@
         <v>23</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -2915,55 +2915,55 @@
         <v>78</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B207" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="B207" s="3" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -2971,31 +2971,31 @@
         <v>74</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -3003,599 +3003,599 @@
         <v>2</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="B270" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="B270" s="3" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
